--- a/3/5/4/Spread 1990 a 2021 - Mensual.xlsx
+++ b/3/5/4/Spread 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="385">
   <si>
     <t>Serie</t>
   </si>
@@ -1166,6 +1166,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1523,7 +1526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E380"/>
+  <dimension ref="A1:E381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7797,10 +7800,21 @@
         <v>383</v>
       </c>
       <c r="C380">
-        <v>1.82</v>
+        <v>2.09</v>
       </c>
       <c r="E380">
-        <v>1.95</v>
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" t="s">
+        <v>384</v>
+      </c>
+      <c r="C381">
+        <v>2.47</v>
+      </c>
+      <c r="E381">
+        <v>2.02</v>
       </c>
     </row>
   </sheetData>

--- a/3/5/4/Spread 1990 a 2021 - Mensual.xlsx
+++ b/3/5/4/Spread 1990 a 2021 - Mensual.xlsx
@@ -7811,7 +7811,7 @@
         <v>384</v>
       </c>
       <c r="C381">
-        <v>2.47</v>
+        <v>2.28</v>
       </c>
       <c r="E381">
         <v>2.02</v>

--- a/3/5/4/Spread 1990 a 2021 - Mensual.xlsx
+++ b/3/5/4/Spread 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="386">
   <si>
     <t>Serie</t>
   </si>
@@ -1169,6 +1169,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1526,7 +1529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E381"/>
+  <dimension ref="A1:E382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7817,6 +7820,17 @@
         <v>2.02</v>
       </c>
     </row>
+    <row r="382" spans="1:5">
+      <c r="A382" t="s">
+        <v>385</v>
+      </c>
+      <c r="C382">
+        <v>2.74</v>
+      </c>
+      <c r="E382">
+        <v>2.48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/5/4/Spread 1990 a 2021 - Mensual.xlsx
+++ b/3/5/4/Spread 1990 a 2021 - Mensual.xlsx
@@ -7825,10 +7825,10 @@
         <v>385</v>
       </c>
       <c r="C382">
-        <v>2.74</v>
+        <v>2.55</v>
       </c>
       <c r="E382">
-        <v>2.48</v>
+        <v>2.31</v>
       </c>
     </row>
   </sheetData>

--- a/3/5/4/Spread 1990 a 2021 - Mensual.xlsx
+++ b/3/5/4/Spread 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="387">
   <si>
     <t>Serie</t>
   </si>
@@ -1172,6 +1172,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1529,7 +1532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E382"/>
+  <dimension ref="A1:E383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7831,6 +7834,17 @@
         <v>2.31</v>
       </c>
     </row>
+    <row r="383" spans="1:5">
+      <c r="A383" t="s">
+        <v>386</v>
+      </c>
+      <c r="C383">
+        <v>2.39</v>
+      </c>
+      <c r="E383">
+        <v>2.14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/5/4/Spread 1990 a 2021 - Mensual.xlsx
+++ b/3/5/4/Spread 1990 a 2021 - Mensual.xlsx
@@ -7839,10 +7839,10 @@
         <v>386</v>
       </c>
       <c r="C383">
-        <v>2.39</v>
+        <v>2.3</v>
       </c>
       <c r="E383">
-        <v>2.14</v>
+        <v>2.11</v>
       </c>
     </row>
   </sheetData>
